--- a/LupaKataSandi.xlsx
+++ b/LupaKataSandi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MY WORLD\KULIAH (TUGAS)\TGS SEMS. 8\INTERNSHIT\Task ACC ONE\ACC-ACCOne\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA900D5E-A083-4EC1-94AD-6A987C7D984C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35B824E-757D-450C-AD6D-27BF6EF796B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="885" yWindow="0" windowWidth="17895" windowHeight="11070" xr2:uid="{20144473-86DB-4B29-B5D0-6DB4014EC363}"/>
+    <workbookView xWindow="390" yWindow="0" windowWidth="17895" windowHeight="11070" xr2:uid="{20144473-86DB-4B29-B5D0-6DB4014EC363}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
   <si>
     <t>email</t>
   </si>
@@ -96,6 +96,12 @@
   </si>
   <si>
     <t>A12345</t>
+  </si>
+  <si>
+    <t>emailSalah</t>
+  </si>
+  <si>
+    <t>lalalala</t>
   </si>
 </sst>
 </file>
@@ -527,7 +533,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,7 +725,16 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+      <c r="A11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
@@ -735,8 +750,9 @@
     <hyperlink ref="A4" r:id="rId3" xr:uid="{1538F84E-4184-4761-B884-D6F0E3C20B97}"/>
     <hyperlink ref="A6" r:id="rId4" xr:uid="{CF3E3816-4ACE-4C13-8E84-3118D4890F86}"/>
     <hyperlink ref="A10" r:id="rId5" xr:uid="{78062C1C-84A0-479F-B87F-B12CF0C1FE8A}"/>
+    <hyperlink ref="A11" r:id="rId6" display="rizkariz20@gmail.com" xr:uid="{582E9C68-5448-4AF3-93F8-49AC789F7A71}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/LupaKataSandi.xlsx
+++ b/LupaKataSandi.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MY WORLD\KULIAH (TUGAS)\TGS SEMS. 8\INTERNSHIT\Task ACC ONE\ACC-ACCOne\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35B824E-757D-450C-AD6D-27BF6EF796B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6FAF9D-E2A7-4C2C-874B-C6AFC1EE0A13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="0" windowWidth="17895" windowHeight="11070" xr2:uid="{20144473-86DB-4B29-B5D0-6DB4014EC363}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{20144473-86DB-4B29-B5D0-6DB4014EC363}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="31">
   <si>
     <t>email</t>
   </si>
@@ -102,13 +103,37 @@
   </si>
   <si>
     <t>lalalala</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>A123456</t>
+  </si>
+  <si>
+    <t>IN456</t>
+  </si>
+  <si>
+    <t>IN1234</t>
+  </si>
+  <si>
+    <t>INA123456</t>
+  </si>
+  <si>
+    <t>tralalala@gmail.com</t>
+  </si>
+  <si>
+    <t>passwordTidakSesuaiHarusDiisi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,8 +174,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,8 +218,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -199,14 +248,174 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -215,6 +424,77 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -530,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EFA2CD0-E11E-48A2-AA8F-B59900E87E0F}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,218 +821,1544 @@
     <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="33" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="A2" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="29">
+        <v>261294</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>8</v>
+      <c r="A3" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="29">
+        <v>261294</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="25" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7">
+      <c r="A4" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="24">
         <v>444444</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7" t="s">
+      <c r="D4" s="22"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="25" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="A5" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="23">
+        <v>261294</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="23">
+        <v>261294</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="23">
+        <v>261294</v>
+      </c>
+      <c r="D7" s="22">
+        <v>1234567</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="23">
+        <v>261294</v>
+      </c>
+      <c r="D8" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="E8" s="19"/>
+      <c r="F8" s="25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="7">
-        <v>123321123</v>
-      </c>
-      <c r="E6" s="7">
-        <v>123321123</v>
-      </c>
-      <c r="F6" s="7" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="23">
+        <v>261294</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="23">
+        <v>261294</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="23">
+        <v>261294</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="23">
+        <v>261294</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="23">
+        <v>261294</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="23">
+        <v>261294</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="23">
+        <v>261294</v>
+      </c>
+      <c r="D15" s="22">
+        <v>1234567</v>
+      </c>
+      <c r="E15" s="19"/>
+      <c r="F15" s="25" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7">
-        <v>123</v>
-      </c>
-      <c r="F7" s="7" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="23">
+        <v>261294</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="19"/>
+      <c r="F16" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="23">
+        <v>261294</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="23">
+        <v>261294</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="19"/>
+      <c r="F18" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="23">
+        <v>261294</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="23">
+        <v>261294</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="24">
+        <v>444444</v>
+      </c>
+      <c r="D21" s="22"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="23">
+        <v>261294</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="19"/>
+      <c r="F22" s="25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="23">
+        <v>261294</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="19"/>
+      <c r="F23" s="25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="23">
+        <v>261294</v>
+      </c>
+      <c r="D24" s="22">
+        <v>1234567</v>
+      </c>
+      <c r="E24" s="19"/>
+      <c r="F24" s="25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="23">
+        <v>261294</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="19"/>
+      <c r="F25" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="23">
+        <v>261294</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="23">
+        <v>261294</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="19"/>
+      <c r="F27" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="23">
+        <v>261294</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="23">
+        <v>261294</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="19"/>
+      <c r="F29" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="23">
+        <v>261294</v>
+      </c>
+      <c r="D30" s="22"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="25" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="7" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="23">
+        <v>261294</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="19"/>
+      <c r="F31" s="25" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="7">
-        <v>123456</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="23">
+        <v>261294</v>
+      </c>
+      <c r="D32" s="22">
+        <v>1234567</v>
+      </c>
+      <c r="E32" s="19"/>
+      <c r="F32" s="25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="23">
+        <v>261294</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="19"/>
+      <c r="F33" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="23">
+        <v>261294</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" s="25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="23">
+        <v>261294</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="19"/>
+      <c r="F35" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="23">
+        <v>261294</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" s="25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="23">
+        <v>261294</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="21"/>
+      <c r="F37" s="25" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{557C4362-0A4B-4F8A-BA91-6299C7B96121}"/>
-    <hyperlink ref="A3:A13" r:id="rId2" display="rizkariz20@gmail.com" xr:uid="{2D70F287-06B0-4784-B2F4-93E0B144D40C}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{1538F84E-4184-4761-B884-D6F0E3C20B97}"/>
-    <hyperlink ref="A6" r:id="rId4" xr:uid="{CF3E3816-4ACE-4C13-8E84-3118D4890F86}"/>
-    <hyperlink ref="A10" r:id="rId5" xr:uid="{78062C1C-84A0-479F-B87F-B12CF0C1FE8A}"/>
-    <hyperlink ref="A11" r:id="rId6" display="rizkariz20@gmail.com" xr:uid="{582E9C68-5448-4AF3-93F8-49AC789F7A71}"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{26B242A7-EC67-4FF0-9691-36920AC2B9DD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C98C02CA-155B-47D1-B934-E49D62E4C171}">
+  <dimension ref="A1:M37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="6" width="19.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13">
+        <v>444444</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>444444</v>
+      </c>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="6">
+        <v>123321123</v>
+      </c>
+      <c r="L6" s="6">
+        <v>123321123</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="7">
+        <v>1234567</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6">
+        <v>123</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
+        <v>123456</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="7">
+        <v>1234567</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="13">
+        <v>444444</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="15"/>
+      <c r="D22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="7">
+        <v>1234567</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="15"/>
+      <c r="D27" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="15"/>
+      <c r="D28" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="15"/>
+      <c r="D29" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="15"/>
+      <c r="D31" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="15"/>
+      <c r="D32" s="7">
+        <v>1234567</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="15"/>
+      <c r="D33" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="15"/>
+      <c r="D34" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="15"/>
+      <c r="D35" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="15"/>
+      <c r="D36" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="15"/>
+      <c r="D37" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="7"/>
+      <c r="F37" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H3:H11" r:id="rId1" display="rizkariz20@gmail.com" xr:uid="{9BD015D2-8F48-4B6D-B552-8E7A248E9783}"/>
+    <hyperlink ref="H6" r:id="rId2" xr:uid="{89F49A98-F334-4A76-9F88-E420B80223F3}"/>
+    <hyperlink ref="H10" r:id="rId3" xr:uid="{108CEB95-C51E-459D-BA9D-F547358557D3}"/>
+    <hyperlink ref="H11" r:id="rId4" display="rizkariz20@gmail.com" xr:uid="{D635EE91-3B0B-40A0-9663-EE7792391BC0}"/>
+    <hyperlink ref="H2" r:id="rId5" xr:uid="{4DC1EEB5-D369-4E2F-A00F-E752571E17F2}"/>
+    <hyperlink ref="H4" r:id="rId6" xr:uid="{181372D9-FD31-409F-B46C-6EBF9A0E3388}"/>
+    <hyperlink ref="A3" r:id="rId7" xr:uid="{4E8ADC9B-026B-43C2-B693-178F91D58701}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/LupaKataSandi.xlsx
+++ b/LupaKataSandi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MY WORLD\KULIAH (TUGAS)\TGS SEMS. 8\INTERNSHIT\Task ACC ONE\ACC-ACCOne\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6FAF9D-E2A7-4C2C-874B-C6AFC1EE0A13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4DA8B1-5B4E-4C4D-83F7-FEB901DF595D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{20144473-86DB-4B29-B5D0-6DB4014EC363}"/>
+    <workbookView xWindow="6105" yWindow="0" windowWidth="13440" windowHeight="11070" xr2:uid="{20144473-86DB-4B29-B5D0-6DB4014EC363}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -813,7 +813,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/LupaKataSandi.xlsx
+++ b/LupaKataSandi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MY WORLD\KULIAH (TUGAS)\TGS SEMS. 8\INTERNSHIT\Task ACC ONE\ACC-ACCOne\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4DA8B1-5B4E-4C4D-83F7-FEB901DF595D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD4A2AE-115D-4B12-8BCF-5D5A433A54F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6105" yWindow="0" windowWidth="13440" windowHeight="11070" xr2:uid="{20144473-86DB-4B29-B5D0-6DB4014EC363}"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="13440" windowHeight="11070" xr2:uid="{20144473-86DB-4B29-B5D0-6DB4014EC363}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="31">
   <si>
     <t>email</t>
   </si>
@@ -225,7 +225,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -316,21 +316,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -350,17 +335,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -414,7 +388,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -463,33 +437,27 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -810,10 +778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EFA2CD0-E11E-48A2-AA8F-B59900E87E0F}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -825,42 +793,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="32" t="s">
+      <c r="A1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="31" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="29">
+      <c r="A2" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="27">
         <v>261294</v>
       </c>
-      <c r="D2" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="30" t="s">
+      <c r="D2" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="28" t="s">
         <v>8</v>
       </c>
     </row>
@@ -868,13 +836,13 @@
       <c r="A3" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="29">
+      <c r="B3" s="21"/>
+      <c r="C3" s="27">
         <v>261294</v>
       </c>
-      <c r="D3" s="22"/>
+      <c r="D3" s="21"/>
       <c r="E3" s="19"/>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="24" t="s">
         <v>21</v>
       </c>
     </row>
@@ -882,15 +850,15 @@
       <c r="A4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="24">
+      <c r="B4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="23">
         <v>444444</v>
       </c>
-      <c r="D4" s="22"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="19"/>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="24" t="s">
         <v>15</v>
       </c>
     </row>
@@ -898,15 +866,15 @@
       <c r="A5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="23">
+      <c r="B5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="22">
         <v>261294</v>
       </c>
-      <c r="D5" s="22"/>
+      <c r="D5" s="21"/>
       <c r="E5" s="19"/>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="24" t="s">
         <v>11</v>
       </c>
     </row>
@@ -914,17 +882,17 @@
       <c r="A6" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="23">
+      <c r="B6" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="22">
         <v>261294</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="21" t="s">
         <v>26</v>
       </c>
       <c r="E6" s="19"/>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="24" t="s">
         <v>12</v>
       </c>
     </row>
@@ -932,17 +900,17 @@
       <c r="A7" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="23">
+      <c r="B7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="22">
         <v>261294</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="21">
         <v>1234567</v>
       </c>
       <c r="E7" s="19"/>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="24" t="s">
         <v>18</v>
       </c>
     </row>
@@ -950,17 +918,17 @@
       <c r="A8" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="23">
+      <c r="B8" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="22">
         <v>261294</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="19"/>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="24" t="s">
         <v>17</v>
       </c>
     </row>
@@ -968,19 +936,19 @@
       <c r="A9" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="23">
+      <c r="B9" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="22">
         <v>261294</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="21" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="24" t="s">
         <v>13</v>
       </c>
     </row>
@@ -988,511 +956,17 @@
       <c r="A10" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="23">
+      <c r="B10" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="22">
         <v>261294</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="21" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="19"/>
-      <c r="F10" s="25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="23">
-        <v>261294</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="23">
-        <v>261294</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="23">
-        <v>261294</v>
-      </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="23">
-        <v>261294</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="23">
-        <v>261294</v>
-      </c>
-      <c r="D15" s="22">
-        <v>1234567</v>
-      </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="23">
-        <v>261294</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="23">
-        <v>261294</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="23">
-        <v>261294</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="23">
-        <v>261294</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="23">
-        <v>261294</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="24">
-        <v>444444</v>
-      </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="23">
-        <v>261294</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="23">
-        <v>261294</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="19"/>
-      <c r="F23" s="25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="23">
-        <v>261294</v>
-      </c>
-      <c r="D24" s="22">
-        <v>1234567</v>
-      </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="23">
-        <v>261294</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="19"/>
-      <c r="F25" s="25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="23">
-        <v>261294</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" s="25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" s="23">
-        <v>261294</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" s="19"/>
-      <c r="F27" s="25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="23">
-        <v>261294</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F28" s="25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="23">
-        <v>261294</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" s="19"/>
-      <c r="F29" s="25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="23">
-        <v>261294</v>
-      </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="23">
-        <v>261294</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31" s="19"/>
-      <c r="F31" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" s="23">
-        <v>261294</v>
-      </c>
-      <c r="D32" s="22">
-        <v>1234567</v>
-      </c>
-      <c r="E32" s="19"/>
-      <c r="F32" s="25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" s="23">
-        <v>261294</v>
-      </c>
-      <c r="D33" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="19"/>
-      <c r="F33" s="25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" s="23">
-        <v>261294</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E34" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F34" s="25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="23">
-        <v>261294</v>
-      </c>
-      <c r="D35" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E35" s="19"/>
-      <c r="F35" s="25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" s="23">
-        <v>261294</v>
-      </c>
-      <c r="D36" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E36" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F36" s="25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C37" s="23">
-        <v>261294</v>
-      </c>
-      <c r="D37" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37" s="21"/>
-      <c r="F37" s="25" t="s">
+      <c r="F10" s="24" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1510,7 +984,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C98C02CA-155B-47D1-B934-E49D62E4C171}">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>

--- a/LupaKataSandi.xlsx
+++ b/LupaKataSandi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MY WORLD\KULIAH (TUGAS)\TGS SEMS. 8\INTERNSHIT\Task ACC ONE\ACC-ACCOne\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD4A2AE-115D-4B12-8BCF-5D5A433A54F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B1A3AB-819A-4792-A45E-D38886006413}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="930" yWindow="0" windowWidth="13440" windowHeight="11070" xr2:uid="{20144473-86DB-4B29-B5D0-6DB4014EC363}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="32">
   <si>
     <t>email</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>passwordTidakSesuaiHarusDiisi</t>
+  </si>
+  <si>
+    <t>emailKosong</t>
   </si>
 </sst>
 </file>
@@ -388,7 +391,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -462,6 +465,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -778,10 +784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EFA2CD0-E11E-48A2-AA8F-B59900E87E0F}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,9 +843,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="21"/>
-      <c r="C3" s="27">
-        <v>261294</v>
-      </c>
+      <c r="C3" s="32"/>
       <c r="D3" s="21"/>
       <c r="E3" s="19"/>
       <c r="F3" s="24" t="s">
@@ -847,19 +851,13 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="23">
-        <v>444444</v>
-      </c>
+      <c r="A4" s="20"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="21"/>
       <c r="E4" s="19"/>
       <c r="F4" s="24" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -869,13 +867,13 @@
       <c r="B5" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="22">
-        <v>261294</v>
+      <c r="C5" s="23">
+        <v>444444</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="19"/>
       <c r="F5" s="24" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -888,12 +886,10 @@
       <c r="C6" s="22">
         <v>261294</v>
       </c>
-      <c r="D6" s="21" t="s">
-        <v>26</v>
-      </c>
+      <c r="D6" s="21"/>
       <c r="E6" s="19"/>
       <c r="F6" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -906,12 +902,12 @@
       <c r="C7" s="22">
         <v>261294</v>
       </c>
-      <c r="D7" s="21">
-        <v>1234567</v>
+      <c r="D7" s="21" t="s">
+        <v>26</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="24" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -924,12 +920,12 @@
       <c r="C8" s="22">
         <v>261294</v>
       </c>
-      <c r="D8" s="21" t="s">
-        <v>9</v>
+      <c r="D8" s="21">
+        <v>1234567</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -943,13 +939,11 @@
         <v>261294</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>27</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E9" s="19"/>
       <c r="F9" s="24" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -965,8 +959,28 @@
       <c r="D10" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="19"/>
+      <c r="E10" s="19" t="s">
+        <v>27</v>
+      </c>
       <c r="F10" s="24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="22">
+        <v>261294</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="19"/>
+      <c r="F11" s="24" t="s">
         <v>30</v>
       </c>
     </row>

--- a/LupaKataSandi.xlsx
+++ b/LupaKataSandi.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MY WORLD\KULIAH (TUGAS)\TGS SEMS. 8\INTERNSHIT\Task ACC ONE\ACC-ACCOne\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lieto\git\ACC-ACCOne\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B1A3AB-819A-4792-A45E-D38886006413}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="13440" windowHeight="11070" xr2:uid="{20144473-86DB-4B29-B5D0-6DB4014EC363}"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="13440" windowHeight="11070"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="34">
   <si>
     <t>email</t>
   </si>
@@ -130,12 +129,18 @@
   </si>
   <si>
     <t>emailKosong</t>
+  </si>
+  <si>
+    <t>fairytailfg@gmail.com</t>
+  </si>
+  <si>
+    <t>Password1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -391,7 +396,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -447,9 +452,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -467,6 +469,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -783,11 +791,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EFA2CD0-E11E-48A2-AA8F-B59900E87E0F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,86 +807,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="30" t="s">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="30" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="27">
-        <v>261294</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>8</v>
+      <c r="A2" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="24" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>29</v>
-      </c>
+      <c r="A3" s="20"/>
       <c r="B3" s="21"/>
-      <c r="C3" s="32"/>
+      <c r="C3" s="31"/>
       <c r="D3" s="21"/>
       <c r="E3" s="19"/>
       <c r="F3" s="24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="32"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="23">
+        <v>444444</v>
+      </c>
       <c r="D4" s="21"/>
       <c r="E4" s="19"/>
       <c r="F4" s="24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>5</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
+        <v>32</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="23">
-        <v>444444</v>
+      <c r="C5" s="22">
+        <v>261294</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="19"/>
       <c r="F5" s="24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>5</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
+        <v>32</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>0</v>
@@ -886,15 +890,17 @@
       <c r="C6" s="22">
         <v>261294</v>
       </c>
-      <c r="D6" s="21"/>
+      <c r="D6" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="E6" s="19"/>
       <c r="F6" s="24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>5</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="33" t="s">
+        <v>32</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>0</v>
@@ -902,17 +908,17 @@
       <c r="C7" s="22">
         <v>261294</v>
       </c>
-      <c r="D7" s="21" t="s">
-        <v>26</v>
+      <c r="D7" s="21">
+        <v>1234567</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>5</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="33" t="s">
+        <v>32</v>
       </c>
       <c r="B8" s="21" t="s">
         <v>0</v>
@@ -920,17 +926,17 @@
       <c r="C8" s="22">
         <v>261294</v>
       </c>
-      <c r="D8" s="21">
-        <v>1234567</v>
+      <c r="D8" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
-        <v>5</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="33" t="s">
+        <v>32</v>
       </c>
       <c r="B9" s="21" t="s">
         <v>0</v>
@@ -939,16 +945,18 @@
         <v>261294</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="19"/>
+        <v>25</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>27</v>
+      </c>
       <c r="F9" s="24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
-        <v>5</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="33" t="s">
+        <v>32</v>
       </c>
       <c r="B10" s="21" t="s">
         <v>0</v>
@@ -959,43 +967,51 @@
       <c r="D10" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="19" t="s">
-        <v>27</v>
-      </c>
+      <c r="E10" s="19"/>
       <c r="F10" s="24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="26">
         <v>261294</v>
       </c>
-      <c r="D11" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="24" t="s">
-        <v>30</v>
+      <c r="D11" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{26B242A7-EC67-4FF0-9691-36920AC2B9DD}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A11" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A7" r:id="rId6"/>
+    <hyperlink ref="A8" r:id="rId7"/>
+    <hyperlink ref="A9" r:id="rId8"/>
+    <hyperlink ref="A10" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C98C02CA-155B-47D1-B934-E49D62E4C171}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -1838,13 +1854,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H3:H11" r:id="rId1" display="rizkariz20@gmail.com" xr:uid="{9BD015D2-8F48-4B6D-B552-8E7A248E9783}"/>
-    <hyperlink ref="H6" r:id="rId2" xr:uid="{89F49A98-F334-4A76-9F88-E420B80223F3}"/>
-    <hyperlink ref="H10" r:id="rId3" xr:uid="{108CEB95-C51E-459D-BA9D-F547358557D3}"/>
-    <hyperlink ref="H11" r:id="rId4" display="rizkariz20@gmail.com" xr:uid="{D635EE91-3B0B-40A0-9663-EE7792391BC0}"/>
-    <hyperlink ref="H2" r:id="rId5" xr:uid="{4DC1EEB5-D369-4E2F-A00F-E752571E17F2}"/>
-    <hyperlink ref="H4" r:id="rId6" xr:uid="{181372D9-FD31-409F-B46C-6EBF9A0E3388}"/>
-    <hyperlink ref="A3" r:id="rId7" xr:uid="{4E8ADC9B-026B-43C2-B693-178F91D58701}"/>
+    <hyperlink ref="H3:H11" r:id="rId1" display="rizkariz20@gmail.com"/>
+    <hyperlink ref="H6" r:id="rId2"/>
+    <hyperlink ref="H10" r:id="rId3"/>
+    <hyperlink ref="H11" r:id="rId4" display="rizkariz20@gmail.com"/>
+    <hyperlink ref="H2" r:id="rId5"/>
+    <hyperlink ref="H4" r:id="rId6"/>
+    <hyperlink ref="A3" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
